--- a/result.xlsx
+++ b/result.xlsx
@@ -11,12 +11,11 @@
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>m_16_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,11 +108,22 @@
     <t>沒差，因為有函示會把多出那小節的去掉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Average Voicing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Individual Voicing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -150,11 +160,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -459,15 +470,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="2" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="18.375" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="8" max="8" width="17.75" customWidth="1"/>
@@ -1079,6 +1090,145 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>43409</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0.78080000000000005</v>
+      </c>
+      <c r="C29">
+        <v>0.5</v>
+      </c>
+      <c r="D29">
+        <v>0.42470000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>0.68389999999999995</v>
+      </c>
+      <c r="C30">
+        <v>0.45319999999999999</v>
+      </c>
+      <c r="D30">
+        <v>0.47260000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>0.6159</v>
+      </c>
+      <c r="C31">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D31">
+        <v>0.2109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="C32">
+        <v>0.41389999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>0.68810000000000004</v>
+      </c>
+      <c r="C33">
+        <v>0.3478</v>
+      </c>
+      <c r="D33">
+        <v>0.3342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>0.59470000000000001</v>
+      </c>
+      <c r="C34">
+        <v>0.32579999999999998</v>
+      </c>
+      <c r="D34">
+        <v>0.22159999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>0.7379</v>
+      </c>
+      <c r="C35">
+        <v>0.39079999999999998</v>
+      </c>
+      <c r="D35">
+        <v>0.40289999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>0.5988</v>
+      </c>
+      <c r="C36">
+        <v>0.57730000000000004</v>
+      </c>
+      <c r="D36">
+        <v>0.61250000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f>AVERAGE(B29:B36)</f>
+        <v>0.67588749999999986</v>
+      </c>
+      <c r="C37">
+        <f>AVERAGE(C29:C36)</f>
+        <v>0.41410000000000002</v>
+      </c>
+      <c r="D37">
+        <f>AVERAGE(D29:D36)</f>
+        <v>0.3827714285714286</v>
       </c>
     </row>
   </sheetData>
